--- a/TelegrammAspMvcDotNetCoreBot/Schedule Files/Mendeleev/7 course.xlsx
+++ b/TelegrammAspMvcDotNetCoreBot/Schedule Files/Mendeleev/7 course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22103"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_10E4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_1C9A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7F088E1-7E35-457F-95AF-CCF261851C3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C9FF73-EDAA-4195-9F69-0721A663CCA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="МН-24,21,23,25" sheetId="60" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="383">
   <si>
     <t>Осенний семестр</t>
   </si>
@@ -89,46 +89,46 @@
     <t>К-417</t>
   </si>
   <si>
+    <t>Электрохимические процессы в нанотехнологиях</t>
+  </si>
+  <si>
+    <t>Кузнецов</t>
+  </si>
+  <si>
+    <t>09:50-10:35</t>
+  </si>
+  <si>
+    <t>каф</t>
+  </si>
+  <si>
+    <t>НИР</t>
+  </si>
+  <si>
+    <t>лаб</t>
+  </si>
+  <si>
+    <t>10:45-11:30</t>
+  </si>
+  <si>
+    <t>Высокоинтенсивные проц. и оборудование в ТНВ</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>Почиталкина</t>
+  </si>
+  <si>
+    <t>11:35-12:20</t>
+  </si>
+  <si>
+    <t>13:00-13:45</t>
+  </si>
+  <si>
     <t>Ресурсосбережение и экология  электрохимических процессов</t>
   </si>
   <si>
     <t>Колесников</t>
-  </si>
-  <si>
-    <t>09:50-10:35</t>
-  </si>
-  <si>
-    <t>каф</t>
-  </si>
-  <si>
-    <t>НИР</t>
-  </si>
-  <si>
-    <t>лаб</t>
-  </si>
-  <si>
-    <t>10:45-11:30</t>
-  </si>
-  <si>
-    <t>Высокоинтенсивные проц. и оборудование в ТНВ</t>
-  </si>
-  <si>
-    <t>с</t>
-  </si>
-  <si>
-    <t>Почиталкина</t>
-  </si>
-  <si>
-    <t>11:35-12:20</t>
-  </si>
-  <si>
-    <t>13:00-13:45</t>
-  </si>
-  <si>
-    <t>Электрохимические процессы в нанотехнологиях</t>
-  </si>
-  <si>
-    <t>Кузнецов</t>
   </si>
   <si>
     <t>13:50-14:35</t>
@@ -928,6 +928,9 @@
     <t>Синицин</t>
   </si>
   <si>
+    <t>3-410</t>
+  </si>
+  <si>
     <t>Химия и технология углеродных наноматериалов</t>
   </si>
   <si>
@@ -967,18 +970,18 @@
     <t>Принципы конструирования изделий из полимеров, …</t>
   </si>
   <si>
+    <t>Научные основы построения экотехнологий</t>
+  </si>
+  <si>
+    <t>Налетов</t>
+  </si>
+  <si>
+    <t>Спец. курс по 07.11</t>
+  </si>
+  <si>
     <t>Химия гетероциклических соединений по 26.09</t>
   </si>
   <si>
-    <t>Научные основы построения экотехнологий</t>
-  </si>
-  <si>
-    <t>Налетов</t>
-  </si>
-  <si>
-    <t>Спец. курс по 07.11</t>
-  </si>
-  <si>
     <t>Избранные главы горного дела</t>
   </si>
   <si>
@@ -1105,18 +1108,18 @@
     <t>Экспертиза и мониторинг безопасности</t>
   </si>
   <si>
+    <t>Осн.направления … по 25.10</t>
+  </si>
+  <si>
+    <t>Основные направления в разработке методов синтеза веществ нейротропного действия</t>
+  </si>
+  <si>
     <t>Управление качеством и анализ косметических средств</t>
   </si>
   <si>
     <t>Пенкина</t>
   </si>
   <si>
-    <t>Осн.направления … по 25.10</t>
-  </si>
-  <si>
-    <t>Основные направления в разработке методов синтеза веществ нейротропного действия</t>
-  </si>
-  <si>
     <t>Упр. качеством и анализ косметических ср. с 11.10</t>
   </si>
   <si>
@@ -1159,7 +1162,10 @@
     <t>Копылова</t>
   </si>
   <si>
-    <t>Зеленая экономика</t>
+    <t>3-301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Избранные главы химии </t>
   </si>
   <si>
     <t>Промышленный маркетинг по 03.12</t>
@@ -1168,12 +1174,6 @@
     <t>Говриленко</t>
   </si>
   <si>
-    <t>3-301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Избранные главы химии </t>
-  </si>
-  <si>
     <t>Управление качеством окружающей среды в рамках ….</t>
   </si>
   <si>
@@ -1183,6 +1183,9 @@
     <t>НИР с 30.10</t>
   </si>
   <si>
+    <t>3-303</t>
+  </si>
+  <si>
     <t>Производственный экологический контроль</t>
   </si>
   <si>
@@ -1195,7 +1198,10 @@
     <t>Лопаткин</t>
   </si>
   <si>
-    <t>Принципы и методы зеленой химии с 31.10</t>
+    <t>Зеленая экономика по 24.10                               Принципы и методы зеленой химии с 31.10</t>
+  </si>
+  <si>
+    <t>л/с                           с/ лаб</t>
   </si>
   <si>
     <t>Менеджмент безопасности на высокотехнол... по 21.11</t>
@@ -1919,7 +1925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="318">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2778,12 +2784,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2819,6 +2825,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3161,7 +3170,7 @@
   <dimension ref="A1:Z62"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4450,7 +4459,7 @@
       <c r="Y31" s="101"/>
       <c r="Z31" s="118"/>
     </row>
-    <row r="32" spans="1:26" ht="13.7" customHeight="1">
+    <row r="32" spans="1:26" ht="13.5" customHeight="1">
       <c r="A32" s="149"/>
       <c r="B32" s="30" t="s">
         <v>33</v>
@@ -5823,7 +5832,7 @@
   <dimension ref="A1:Z69"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36:X37"/>
+      <selection activeCell="T28" sqref="T28:T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8678,7 +8687,7 @@
   <dimension ref="A1:Z70"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22:L24"/>
+      <selection activeCell="M25" sqref="M25:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9518,8 +9527,8 @@
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="193" t="s">
-        <v>20</v>
+      <c r="K22" s="193">
+        <v>264</v>
       </c>
       <c r="L22" s="179" t="s">
         <v>147</v>
@@ -11602,7 +11611,7 @@
         <v>14</v>
       </c>
       <c r="R6" s="124" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="S6" s="196"/>
       <c r="T6" s="180"/>
@@ -13962,8 +13971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48:P51"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15088,10 +15097,10 @@
       <c r="P29" s="134"/>
       <c r="Q29" s="155"/>
       <c r="R29" s="222"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="118"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="61"/>
       <c r="W29" s="109"/>
       <c r="X29" s="94"/>
       <c r="Y29" s="101"/>
@@ -15124,18 +15133,18 @@
         <v>25</v>
       </c>
       <c r="R30" s="124" t="s">
-        <v>30</v>
-      </c>
-      <c r="S30" s="204" t="s">
-        <v>20</v>
-      </c>
-      <c r="T30" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="U30" s="154" t="s">
-        <v>22</v>
-      </c>
-      <c r="V30" s="295"/>
+        <v>18</v>
+      </c>
+      <c r="S30" s="188" t="s">
+        <v>197</v>
+      </c>
+      <c r="T30" s="133" t="s">
+        <v>210</v>
+      </c>
+      <c r="U30" s="223" t="s">
+        <v>114</v>
+      </c>
+      <c r="V30" s="221"/>
       <c r="W30" s="109"/>
       <c r="X30" s="94"/>
       <c r="Y30" s="101"/>
@@ -15340,10 +15349,10 @@
         <v>20</v>
       </c>
       <c r="T36" s="206" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="U36" s="224" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="V36" s="220"/>
       <c r="W36" s="53"/>
@@ -19415,8 +19424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32:T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19573,7 +19582,7 @@
       <c r="M4" s="246" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="305"/>
+      <c r="N4" s="304"/>
       <c r="O4" s="251" t="s">
         <v>20</v>
       </c>
@@ -19583,7 +19592,7 @@
       <c r="Q4" s="246" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="305"/>
+      <c r="R4" s="304"/>
       <c r="S4" s="251" t="s">
         <v>20</v>
       </c>
@@ -19593,7 +19602,7 @@
       <c r="U4" s="246" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="305"/>
+      <c r="V4" s="304"/>
       <c r="W4" s="109"/>
       <c r="X4" s="94"/>
       <c r="Y4" s="101"/>
@@ -20045,7 +20054,7 @@
       <c r="Q16" s="246" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="305" t="s">
+      <c r="R16" s="304" t="s">
         <v>274</v>
       </c>
       <c r="S16" s="53"/>
@@ -20061,7 +20070,7 @@
       <c r="Y16" s="246" t="s">
         <v>22</v>
       </c>
-      <c r="Z16" s="305"/>
+      <c r="Z16" s="304"/>
     </row>
     <row r="17" spans="1:26" ht="13.7" customHeight="1" thickBot="1">
       <c r="A17" s="122"/>
@@ -20290,10 +20299,10 @@
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="118"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="61"/>
       <c r="O22" s="269"/>
       <c r="P22" s="180"/>
       <c r="Q22" s="242"/>
@@ -20591,7 +20600,7 @@
       <c r="Y30" s="246" t="s">
         <v>22</v>
       </c>
-      <c r="Z30" s="305"/>
+      <c r="Z30" s="304"/>
     </row>
     <row r="31" spans="1:26" ht="13.7" customHeight="1">
       <c r="A31" s="149"/>
@@ -20669,16 +20678,16 @@
         <v>208</v>
       </c>
       <c r="S32" s="195" t="s">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="T32" s="179" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="U32" s="182" t="s">
         <v>25</v>
       </c>
       <c r="V32" s="143" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W32" s="269"/>
       <c r="X32" s="180"/>
@@ -20742,7 +20751,7 @@
         <v>14</v>
       </c>
       <c r="R34" s="90" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S34" s="197"/>
       <c r="T34" s="181"/>
@@ -20800,13 +20809,13 @@
         <v>20</v>
       </c>
       <c r="L36" s="179" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M36" s="182" t="s">
         <v>14</v>
       </c>
       <c r="N36" s="143" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O36" s="269" t="s">
         <v>20</v>
@@ -20904,13 +20913,13 @@
         <v>20</v>
       </c>
       <c r="L39" s="180" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M39" s="242" t="s">
         <v>14</v>
       </c>
       <c r="N39" s="306" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O39" s="252"/>
       <c r="P39" s="181"/>
@@ -21025,25 +21034,17 @@
       <c r="M42" s="246" t="s">
         <v>22</v>
       </c>
-      <c r="N42" s="305"/>
-      <c r="O42" s="251">
-        <v>527</v>
-      </c>
-      <c r="P42" s="243" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q42" s="246" t="s">
-        <v>14</v>
-      </c>
-      <c r="R42" s="228" t="s">
-        <v>274</v>
-      </c>
+      <c r="N42" s="304"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="56"/>
       <c r="S42" s="53"/>
       <c r="T42" s="54"/>
       <c r="U42" s="55"/>
       <c r="V42" s="56"/>
-      <c r="W42" s="53">
-        <v>412</v>
+      <c r="W42" s="53" t="s">
+        <v>20</v>
       </c>
       <c r="X42" s="54" t="s">
         <v>260</v>
@@ -21072,19 +21073,27 @@
       <c r="L43" s="180"/>
       <c r="M43" s="242"/>
       <c r="N43" s="296"/>
-      <c r="O43" s="252"/>
-      <c r="P43" s="181"/>
-      <c r="Q43" s="183"/>
-      <c r="R43" s="230"/>
+      <c r="O43" s="269">
+        <v>107</v>
+      </c>
+      <c r="P43" s="180" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q43" s="242" t="s">
+        <v>14</v>
+      </c>
+      <c r="R43" s="229" t="s">
+        <v>274</v>
+      </c>
       <c r="S43" s="109"/>
       <c r="T43" s="94"/>
       <c r="U43" s="101"/>
       <c r="V43" s="118"/>
-      <c r="W43" s="195">
-        <v>412</v>
+      <c r="W43" s="195" t="s">
+        <v>20</v>
       </c>
       <c r="X43" s="179" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y43" s="182" t="s">
         <v>14</v>
@@ -21110,18 +21119,10 @@
       <c r="L44" s="180"/>
       <c r="M44" s="242"/>
       <c r="N44" s="296"/>
-      <c r="O44" s="273">
-        <v>527</v>
-      </c>
-      <c r="P44" s="179" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q44" s="182" t="s">
-        <v>14</v>
-      </c>
-      <c r="R44" s="304" t="s">
-        <v>293</v>
-      </c>
+      <c r="O44" s="252"/>
+      <c r="P44" s="181"/>
+      <c r="Q44" s="183"/>
+      <c r="R44" s="230"/>
       <c r="S44" s="109"/>
       <c r="T44" s="94"/>
       <c r="U44" s="101"/>
@@ -21148,10 +21149,18 @@
       <c r="L45" s="181"/>
       <c r="M45" s="183"/>
       <c r="N45" s="297"/>
-      <c r="O45" s="269"/>
-      <c r="P45" s="180"/>
-      <c r="Q45" s="242"/>
-      <c r="R45" s="296"/>
+      <c r="O45" s="273">
+        <v>107</v>
+      </c>
+      <c r="P45" s="179" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q45" s="182" t="s">
+        <v>14</v>
+      </c>
+      <c r="R45" s="305" t="s">
+        <v>294</v>
+      </c>
       <c r="S45" s="109"/>
       <c r="T45" s="94"/>
       <c r="U45" s="101"/>
@@ -21186,7 +21195,7 @@
         <v>20</v>
       </c>
       <c r="T46" s="240" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="U46" s="242" t="s">
         <v>22</v>
@@ -21196,7 +21205,7 @@
         <v>20</v>
       </c>
       <c r="X46" s="256" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y46" s="182" t="s">
         <v>14</v>
@@ -21238,10 +21247,10 @@
       <c r="L47" s="94"/>
       <c r="M47" s="101"/>
       <c r="N47" s="118"/>
-      <c r="O47" s="252"/>
-      <c r="P47" s="181"/>
-      <c r="Q47" s="183"/>
-      <c r="R47" s="297"/>
+      <c r="O47" s="269"/>
+      <c r="P47" s="180"/>
+      <c r="Q47" s="242"/>
+      <c r="R47" s="296"/>
       <c r="S47" s="252"/>
       <c r="T47" s="241"/>
       <c r="U47" s="183"/>
@@ -21284,18 +21293,10 @@
       <c r="L48" s="94"/>
       <c r="M48" s="101"/>
       <c r="N48" s="118"/>
-      <c r="O48" s="269" t="s">
-        <v>20</v>
-      </c>
-      <c r="P48" s="180" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q48" s="242" t="s">
-        <v>14</v>
-      </c>
-      <c r="R48" s="229" t="s">
-        <v>293</v>
-      </c>
+      <c r="O48" s="252"/>
+      <c r="P48" s="181"/>
+      <c r="Q48" s="183"/>
+      <c r="R48" s="297"/>
       <c r="S48" s="273" t="s">
         <v>20</v>
       </c>
@@ -21305,7 +21306,7 @@
       <c r="U48" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="V48" s="304" t="s">
+      <c r="V48" s="305" t="s">
         <v>298</v>
       </c>
       <c r="W48" s="109" t="s">
@@ -21354,10 +21355,18 @@
       <c r="L49" s="94"/>
       <c r="M49" s="101"/>
       <c r="N49" s="118"/>
-      <c r="O49" s="252"/>
-      <c r="P49" s="181"/>
-      <c r="Q49" s="183"/>
-      <c r="R49" s="230"/>
+      <c r="O49" s="269" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="180" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q49" s="242" t="s">
+        <v>14</v>
+      </c>
+      <c r="R49" s="229" t="s">
+        <v>294</v>
+      </c>
       <c r="S49" s="269"/>
       <c r="T49" s="180"/>
       <c r="U49" s="242"/>
@@ -21384,10 +21393,10 @@
       <c r="L50" s="94"/>
       <c r="M50" s="101"/>
       <c r="N50" s="118"/>
-      <c r="O50" s="109"/>
-      <c r="P50" s="94"/>
-      <c r="Q50" s="101"/>
-      <c r="R50" s="118"/>
+      <c r="O50" s="252"/>
+      <c r="P50" s="181"/>
+      <c r="Q50" s="183"/>
+      <c r="R50" s="230"/>
       <c r="S50" s="269"/>
       <c r="T50" s="180"/>
       <c r="U50" s="242"/>
@@ -21468,7 +21477,7 @@
         <v>20</v>
       </c>
       <c r="T52" s="180" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="U52" s="242" t="s">
         <v>14</v>
@@ -21498,10 +21507,10 @@
       <c r="L53" s="92"/>
       <c r="M53" s="113"/>
       <c r="N53" s="73"/>
-      <c r="O53" s="109"/>
-      <c r="P53" s="94"/>
-      <c r="Q53" s="101"/>
-      <c r="R53" s="118"/>
+      <c r="O53" s="114"/>
+      <c r="P53" s="92"/>
+      <c r="Q53" s="113"/>
+      <c r="R53" s="73"/>
       <c r="S53" s="252"/>
       <c r="T53" s="181"/>
       <c r="U53" s="183"/>
@@ -21646,17 +21655,17 @@
       <c r="T56" s="94"/>
       <c r="U56" s="101"/>
       <c r="V56" s="118"/>
-      <c r="W56" s="196">
-        <v>425</v>
+      <c r="W56" s="196" t="s">
+        <v>20</v>
       </c>
       <c r="X56" s="257" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y56" s="242" t="s">
         <v>14</v>
       </c>
       <c r="Z56" s="144" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="13.7" customHeight="1">
@@ -22285,6 +22294,7 @@
     <mergeCell ref="X12:X14"/>
     <mergeCell ref="Y12:Y14"/>
     <mergeCell ref="W12:W14"/>
+    <mergeCell ref="X30:X35"/>
     <mergeCell ref="U26:U29"/>
     <mergeCell ref="V26:V29"/>
     <mergeCell ref="U22:U25"/>
@@ -22304,16 +22314,20 @@
     <mergeCell ref="T26:T29"/>
     <mergeCell ref="S22:S25"/>
     <mergeCell ref="T22:T25"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="R45:R48"/>
     <mergeCell ref="A30:A41"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
     <mergeCell ref="O36:O39"/>
     <mergeCell ref="N36:N38"/>
     <mergeCell ref="A67:A70"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="P48:P49"/>
     <mergeCell ref="A54:A66"/>
     <mergeCell ref="A42:A53"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="O45:O48"/>
     <mergeCell ref="O4:O9"/>
     <mergeCell ref="P4:P9"/>
     <mergeCell ref="Q4:Q9"/>
@@ -22347,60 +22361,55 @@
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="S46:S47"/>
-    <mergeCell ref="R44:R47"/>
     <mergeCell ref="P36:P39"/>
     <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="Q42:Q43"/>
     <mergeCell ref="V46:V47"/>
     <mergeCell ref="U32:U34"/>
+    <mergeCell ref="W43:W45"/>
+    <mergeCell ref="X43:X45"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="S4:S9"/>
     <mergeCell ref="T4:T9"/>
-    <mergeCell ref="W43:W45"/>
-    <mergeCell ref="X43:X45"/>
-    <mergeCell ref="U52:U53"/>
     <mergeCell ref="V52:V53"/>
     <mergeCell ref="T32:T34"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="W30:W35"/>
-    <mergeCell ref="X30:X35"/>
     <mergeCell ref="S48:S51"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="T48:T51"/>
+    <mergeCell ref="U48:U51"/>
+    <mergeCell ref="V48:V51"/>
     <mergeCell ref="Q32:Q33"/>
     <mergeCell ref="R32:R33"/>
-    <mergeCell ref="Q44:Q47"/>
     <mergeCell ref="O32:O33"/>
     <mergeCell ref="P32:P33"/>
-    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
     <mergeCell ref="M42:M45"/>
     <mergeCell ref="N42:N45"/>
     <mergeCell ref="N39:N40"/>
-    <mergeCell ref="P44:P47"/>
     <mergeCell ref="M39:M40"/>
-    <mergeCell ref="T48:T51"/>
-    <mergeCell ref="U48:U51"/>
-    <mergeCell ref="V48:V51"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="P45:P48"/>
+    <mergeCell ref="Q45:Q48"/>
+    <mergeCell ref="O64:O66"/>
+    <mergeCell ref="P64:P66"/>
+    <mergeCell ref="Q64:Q66"/>
+    <mergeCell ref="R64:R66"/>
     <mergeCell ref="U46:U47"/>
     <mergeCell ref="K59:K61"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="Q16:Q24"/>
     <mergeCell ref="R16:R24"/>
-    <mergeCell ref="O44:O47"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="O64:O66"/>
-    <mergeCell ref="P64:P66"/>
-    <mergeCell ref="Q64:Q66"/>
-    <mergeCell ref="R64:R66"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="L20:L21"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M62:M63"/>
     <mergeCell ref="L42:L45"/>
+    <mergeCell ref="U52:U53"/>
+    <mergeCell ref="K42:K45"/>
     <mergeCell ref="Z59:Z61"/>
     <mergeCell ref="W62:W63"/>
     <mergeCell ref="X62:X63"/>
@@ -22436,8 +22445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z73"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54"/>
+    <sheetView topLeftCell="A7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="S59" sqref="S59:S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22531,25 +22540,25 @@
       <c r="J3" s="24"/>
       <c r="K3" s="22"/>
       <c r="L3" s="25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M3" s="26"/>
       <c r="N3" s="34"/>
       <c r="O3" s="22"/>
       <c r="P3" s="25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q3" s="26"/>
       <c r="R3" s="34"/>
       <c r="S3" s="35"/>
       <c r="T3" s="25" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U3" s="26"/>
       <c r="V3" s="34"/>
       <c r="W3" s="35"/>
       <c r="X3" s="25" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y3" s="40"/>
       <c r="Z3" s="34"/>
@@ -22684,16 +22693,16 @@
         <v>40315</v>
       </c>
       <c r="K6" s="162" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L6" s="178" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M6" s="130" t="s">
         <v>14</v>
       </c>
       <c r="N6" s="219" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O6" s="188" t="s">
         <v>20</v>
@@ -22846,16 +22855,16 @@
       <c r="M10" s="148"/>
       <c r="N10" s="221"/>
       <c r="O10" s="188" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P10" s="133" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="148" t="s">
         <v>14</v>
       </c>
       <c r="R10" s="221" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="S10" s="109"/>
       <c r="T10" s="94"/>
@@ -23078,22 +23087,22 @@
         <v>40316</v>
       </c>
       <c r="K17" s="290" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L17" s="206" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M17" s="224" t="s">
         <v>114</v>
       </c>
       <c r="N17" s="212" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O17" s="211" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P17" s="206" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="142" t="s">
         <v>14</v>
@@ -23199,13 +23208,13 @@
         <v>20</v>
       </c>
       <c r="X19" s="175" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y19" s="154" t="s">
         <v>22</v>
       </c>
       <c r="Z19" s="219" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="13.7" customHeight="1">
@@ -23238,26 +23247,26 @@
         <v>40316</v>
       </c>
       <c r="K20" s="70" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L20" s="71" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M20" s="69" t="s">
         <v>22</v>
       </c>
       <c r="N20" s="72" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O20" s="127"/>
       <c r="P20" s="134"/>
       <c r="Q20" s="131"/>
       <c r="R20" s="222"/>
       <c r="S20" s="70" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T20" s="71" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="U20" s="69" t="s">
         <v>14</v>
@@ -23282,48 +23291,48 @@
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
       <c r="K21" s="204" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L21" s="178" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M21" s="130" t="s">
         <v>14</v>
       </c>
       <c r="N21" s="219" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O21" s="70" t="s">
         <v>20</v>
       </c>
       <c r="P21" s="98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q21" s="69" t="s">
         <v>25</v>
       </c>
       <c r="R21" s="72"/>
       <c r="S21" s="204" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T21" s="178" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="U21" s="130" t="s">
         <v>14</v>
       </c>
       <c r="V21" s="295"/>
       <c r="W21" s="188" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X21" s="133" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Y21" s="154" t="s">
         <v>114</v>
       </c>
       <c r="Z21" s="219" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="13.7" customHeight="1">
@@ -23344,10 +23353,10 @@
       <c r="M22" s="148"/>
       <c r="N22" s="213"/>
       <c r="O22" s="126" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P22" s="128" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="130" t="s">
         <v>25</v>
@@ -23388,16 +23397,16 @@
       <c r="U23" s="148"/>
       <c r="V23" s="221"/>
       <c r="W23" s="188" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X23" s="133" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y23" s="154" t="s">
         <v>14</v>
       </c>
       <c r="Z23" s="219" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="13.7" customHeight="1">
@@ -23452,26 +23461,26 @@
       <c r="Q25" s="101"/>
       <c r="R25" s="118"/>
       <c r="S25" s="162" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T25" s="178" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="U25" s="130" t="s">
         <v>14</v>
       </c>
       <c r="V25" s="219"/>
       <c r="W25" s="188" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X25" s="133" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y25" s="154" t="s">
         <v>22</v>
       </c>
       <c r="Z25" s="219" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="13.7" customHeight="1">
@@ -23556,10 +23565,10 @@
       <c r="Q28" s="101"/>
       <c r="R28" s="118"/>
       <c r="S28" s="70" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T28" s="98" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="U28" s="69" t="s">
         <v>14</v>
@@ -23996,16 +24005,16 @@
       <c r="U40" s="55"/>
       <c r="V40" s="56"/>
       <c r="W40" s="211" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X40" s="206" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y40" s="142" t="s">
         <v>14</v>
       </c>
       <c r="Z40" s="212" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="13.7" customHeight="1">
@@ -24064,16 +24073,16 @@
       <c r="U42" s="101"/>
       <c r="V42" s="118"/>
       <c r="W42" s="163" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X42" s="133" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y42" s="148" t="s">
         <v>14</v>
       </c>
       <c r="Z42" s="213" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="13.7" customHeight="1">
@@ -24186,16 +24195,16 @@
         <v>39</v>
       </c>
       <c r="W45" s="188" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X45" s="133" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Y45" s="154" t="s">
         <v>254</v>
       </c>
       <c r="Z45" s="219" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="13.7" customHeight="1" thickBot="1">
@@ -24295,7 +24304,7 @@
         <v>22</v>
       </c>
       <c r="Z47" s="72" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="13.7" customHeight="1" thickBot="1">
@@ -24315,7 +24324,7 @@
         <v>418</v>
       </c>
       <c r="L48" s="180" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M48" s="190" t="s">
         <v>57</v>
@@ -24325,7 +24334,7 @@
         <v>418</v>
       </c>
       <c r="P48" s="180" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q48" s="190" t="s">
         <v>57</v>
@@ -24335,7 +24344,7 @@
         <v>418</v>
       </c>
       <c r="T48" s="180" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U48" s="190" t="s">
         <v>57</v>
@@ -24548,16 +24557,16 @@
       <c r="U53" s="101"/>
       <c r="V53" s="118"/>
       <c r="W53" s="162" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X53" s="178" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y53" s="130" t="s">
         <v>14</v>
       </c>
       <c r="Z53" s="219" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="13.7" customHeight="1" thickBot="1">
@@ -24597,10 +24606,14 @@
       <c r="P54" s="94"/>
       <c r="Q54" s="101"/>
       <c r="R54" s="118"/>
-      <c r="S54" s="109"/>
-      <c r="T54" s="94"/>
-      <c r="U54" s="101"/>
-      <c r="V54" s="118"/>
+      <c r="S54" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="T54" s="98" t="s">
+        <v>343</v>
+      </c>
+      <c r="U54" s="69"/>
+      <c r="V54" s="72"/>
       <c r="W54" s="163"/>
       <c r="X54" s="133"/>
       <c r="Y54" s="148"/>
@@ -24643,10 +24656,16 @@
       <c r="P55" s="94"/>
       <c r="Q55" s="101"/>
       <c r="R55" s="118"/>
-      <c r="S55" s="109"/>
-      <c r="T55" s="94"/>
-      <c r="U55" s="101"/>
-      <c r="V55" s="118"/>
+      <c r="S55" s="163" t="s">
+        <v>320</v>
+      </c>
+      <c r="T55" s="133" t="s">
+        <v>344</v>
+      </c>
+      <c r="U55" s="148" t="s">
+        <v>14</v>
+      </c>
+      <c r="V55" s="221"/>
       <c r="W55" s="164"/>
       <c r="X55" s="134"/>
       <c r="Y55" s="131"/>
@@ -24689,10 +24708,10 @@
       <c r="P56" s="94"/>
       <c r="Q56" s="101"/>
       <c r="R56" s="118"/>
-      <c r="S56" s="109"/>
-      <c r="T56" s="94"/>
-      <c r="U56" s="101"/>
-      <c r="V56" s="118"/>
+      <c r="S56" s="163"/>
+      <c r="T56" s="133"/>
+      <c r="U56" s="148"/>
+      <c r="V56" s="221"/>
       <c r="W56" s="162" t="s">
         <v>20</v>
       </c>
@@ -24723,10 +24742,10 @@
       <c r="P57" s="94"/>
       <c r="Q57" s="101"/>
       <c r="R57" s="118"/>
-      <c r="S57" s="109"/>
-      <c r="T57" s="94"/>
-      <c r="U57" s="101"/>
-      <c r="V57" s="118"/>
+      <c r="S57" s="163"/>
+      <c r="T57" s="133"/>
+      <c r="U57" s="148"/>
+      <c r="V57" s="221"/>
       <c r="W57" s="163"/>
       <c r="X57" s="133"/>
       <c r="Y57" s="148"/>
@@ -24753,16 +24772,10 @@
       <c r="P58" s="94"/>
       <c r="Q58" s="101"/>
       <c r="R58" s="118"/>
-      <c r="S58" s="162" t="s">
-        <v>20</v>
-      </c>
-      <c r="T58" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="U58" s="130" t="s">
-        <v>22</v>
-      </c>
-      <c r="V58" s="219"/>
+      <c r="S58" s="164"/>
+      <c r="T58" s="134"/>
+      <c r="U58" s="131"/>
+      <c r="V58" s="222"/>
       <c r="W58" s="164"/>
       <c r="X58" s="134"/>
       <c r="Y58" s="131"/>
@@ -24789,10 +24802,14 @@
       <c r="P59" s="94"/>
       <c r="Q59" s="101"/>
       <c r="R59" s="118"/>
-      <c r="S59" s="163"/>
-      <c r="T59" s="133"/>
-      <c r="U59" s="148"/>
-      <c r="V59" s="213"/>
+      <c r="S59" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="T59" s="178" t="s">
+        <v>21</v>
+      </c>
+      <c r="U59" s="130"/>
+      <c r="V59" s="219"/>
       <c r="W59" s="109"/>
       <c r="X59" s="94"/>
       <c r="Y59" s="101"/>
@@ -24819,10 +24836,10 @@
       <c r="P60" s="94"/>
       <c r="Q60" s="101"/>
       <c r="R60" s="118"/>
-      <c r="S60" s="164"/>
-      <c r="T60" s="134"/>
-      <c r="U60" s="131"/>
-      <c r="V60" s="214"/>
+      <c r="S60" s="163"/>
+      <c r="T60" s="133"/>
+      <c r="U60" s="148"/>
+      <c r="V60" s="213"/>
       <c r="W60" s="109"/>
       <c r="X60" s="94"/>
       <c r="Y60" s="101"/>
@@ -24846,25 +24863,21 @@
       <c r="M61" s="101"/>
       <c r="N61" s="118"/>
       <c r="O61" s="126" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P61" s="128" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q61" s="130" t="s">
         <v>14</v>
       </c>
       <c r="R61" s="124" t="s">
-        <v>343</v>
-      </c>
-      <c r="S61" s="70" t="s">
-        <v>319</v>
-      </c>
-      <c r="T61" s="98" t="s">
-        <v>344</v>
-      </c>
-      <c r="U61" s="69"/>
-      <c r="V61" s="72"/>
+        <v>346</v>
+      </c>
+      <c r="S61" s="164"/>
+      <c r="T61" s="134"/>
+      <c r="U61" s="131"/>
+      <c r="V61" s="214"/>
       <c r="W61" s="109"/>
       <c r="X61" s="94"/>
       <c r="Y61" s="101"/>
@@ -24891,16 +24904,10 @@
       <c r="P62" s="129"/>
       <c r="Q62" s="131"/>
       <c r="R62" s="125"/>
-      <c r="S62" s="163" t="s">
-        <v>319</v>
-      </c>
-      <c r="T62" s="133" t="s">
-        <v>345</v>
-      </c>
-      <c r="U62" s="148" t="s">
-        <v>14</v>
-      </c>
-      <c r="V62" s="221"/>
+      <c r="S62" s="109"/>
+      <c r="T62" s="94"/>
+      <c r="U62" s="101"/>
+      <c r="V62" s="118"/>
       <c r="W62" s="109"/>
       <c r="X62" s="94"/>
       <c r="Y62" s="101"/>
@@ -24924,21 +24931,21 @@
       <c r="M63" s="101"/>
       <c r="N63" s="118"/>
       <c r="O63" s="126" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P63" s="315" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q63" s="130" t="s">
         <v>25</v>
       </c>
       <c r="R63" s="124" t="s">
-        <v>343</v>
-      </c>
-      <c r="S63" s="163"/>
-      <c r="T63" s="133"/>
-      <c r="U63" s="148"/>
-      <c r="V63" s="221"/>
+        <v>346</v>
+      </c>
+      <c r="S63" s="109"/>
+      <c r="T63" s="94"/>
+      <c r="U63" s="101"/>
+      <c r="V63" s="118"/>
       <c r="W63" s="109"/>
       <c r="X63" s="94"/>
       <c r="Y63" s="101"/>
@@ -24965,10 +24972,10 @@
       <c r="P64" s="129"/>
       <c r="Q64" s="131"/>
       <c r="R64" s="125"/>
-      <c r="S64" s="163"/>
-      <c r="T64" s="133"/>
-      <c r="U64" s="148"/>
-      <c r="V64" s="221"/>
+      <c r="S64" s="109"/>
+      <c r="T64" s="94"/>
+      <c r="U64" s="101"/>
+      <c r="V64" s="118"/>
       <c r="W64" s="109"/>
       <c r="X64" s="94"/>
       <c r="Y64" s="101"/>
@@ -24995,10 +25002,10 @@
       <c r="P65" s="92"/>
       <c r="Q65" s="113"/>
       <c r="R65" s="73"/>
-      <c r="S65" s="164"/>
-      <c r="T65" s="134"/>
-      <c r="U65" s="131"/>
-      <c r="V65" s="222"/>
+      <c r="S65" s="114"/>
+      <c r="T65" s="92"/>
+      <c r="U65" s="113"/>
+      <c r="V65" s="73"/>
       <c r="W65" s="114"/>
       <c r="X65" s="92"/>
       <c r="Y65" s="113"/>
@@ -25077,7 +25084,7 @@
         <v>20</v>
       </c>
       <c r="T67" s="178" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="U67" s="130" t="s">
         <v>25</v>
@@ -25251,9 +25258,6 @@
     <mergeCell ref="X19:X20"/>
     <mergeCell ref="S30:S36"/>
     <mergeCell ref="T30:T36"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="S62:S65"/>
-    <mergeCell ref="T62:T65"/>
     <mergeCell ref="Y4:Y9"/>
     <mergeCell ref="W40:W41"/>
     <mergeCell ref="X40:X41"/>
@@ -25261,6 +25265,9 @@
     <mergeCell ref="Y21:Y22"/>
     <mergeCell ref="X45:X46"/>
     <mergeCell ref="Y45:Y46"/>
+    <mergeCell ref="W42:W44"/>
+    <mergeCell ref="X42:X44"/>
+    <mergeCell ref="Y42:Y44"/>
     <mergeCell ref="W21:W22"/>
     <mergeCell ref="X21:X22"/>
     <mergeCell ref="S21:S24"/>
@@ -25269,22 +25276,30 @@
     <mergeCell ref="X23:X24"/>
     <mergeCell ref="W25:W26"/>
     <mergeCell ref="X25:X26"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="R63:R64"/>
-    <mergeCell ref="K53:K58"/>
+    <mergeCell ref="S55:S58"/>
     <mergeCell ref="A66:A69"/>
     <mergeCell ref="A17:A29"/>
     <mergeCell ref="K31:K35"/>
     <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
     <mergeCell ref="S25:S27"/>
     <mergeCell ref="T25:T27"/>
     <mergeCell ref="U25:U27"/>
     <mergeCell ref="V25:V27"/>
     <mergeCell ref="A53:A65"/>
+    <mergeCell ref="Z21:Z22"/>
     <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Z25:Z26"/>
     <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="Z40:Z41"/>
+    <mergeCell ref="T55:T58"/>
+    <mergeCell ref="U55:U58"/>
+    <mergeCell ref="V55:V58"/>
+    <mergeCell ref="S59:S61"/>
+    <mergeCell ref="T59:T61"/>
+    <mergeCell ref="U59:U61"/>
+    <mergeCell ref="V59:V61"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="P2:U2"/>
@@ -25292,16 +25307,16 @@
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="P1:U1"/>
     <mergeCell ref="A40:A52"/>
-    <mergeCell ref="S58:S60"/>
-    <mergeCell ref="T58:T60"/>
-    <mergeCell ref="U58:U60"/>
-    <mergeCell ref="V58:V60"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="K53:K58"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="O50:O52"/>
     <mergeCell ref="Z4:Z9"/>
-    <mergeCell ref="Z40:Z41"/>
     <mergeCell ref="A4:A16"/>
     <mergeCell ref="A30:A39"/>
     <mergeCell ref="W4:W9"/>
@@ -25312,6 +25327,9 @@
     <mergeCell ref="V21:V24"/>
     <mergeCell ref="U30:U36"/>
     <mergeCell ref="V30:V36"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="K50:K52"/>
     <mergeCell ref="K9:K12"/>
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="M9:M12"/>
@@ -25323,27 +25341,17 @@
     <mergeCell ref="M6:M8"/>
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="N31:N35"/>
-    <mergeCell ref="K48:K49"/>
     <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="W42:W44"/>
-    <mergeCell ref="X42:X44"/>
-    <mergeCell ref="Y42:Y44"/>
     <mergeCell ref="Z42:Z44"/>
     <mergeCell ref="S67:S69"/>
     <mergeCell ref="T67:T69"/>
     <mergeCell ref="V67:V69"/>
     <mergeCell ref="U67:U69"/>
-    <mergeCell ref="U62:U65"/>
-    <mergeCell ref="V62:V65"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="L53:L58"/>
-    <mergeCell ref="M53:M58"/>
-    <mergeCell ref="N53:N58"/>
-    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="S45:S47"/>
+    <mergeCell ref="S48:S49"/>
+    <mergeCell ref="T48:T49"/>
+    <mergeCell ref="U48:U49"/>
+    <mergeCell ref="V48:V49"/>
     <mergeCell ref="P6:P9"/>
     <mergeCell ref="Q6:Q9"/>
     <mergeCell ref="R6:R9"/>
@@ -25351,9 +25359,6 @@
     <mergeCell ref="P10:P13"/>
     <mergeCell ref="Q10:Q13"/>
     <mergeCell ref="R10:R13"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="R17:R20"/>
     <mergeCell ref="O61:O62"/>
     <mergeCell ref="P61:P62"/>
     <mergeCell ref="O22:O23"/>
@@ -25361,44 +25366,46 @@
     <mergeCell ref="Q22:Q23"/>
     <mergeCell ref="R22:R23"/>
     <mergeCell ref="Q30:Q35"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="Q48:Q49"/>
     <mergeCell ref="R30:R35"/>
-    <mergeCell ref="O50:O52"/>
-    <mergeCell ref="P50:P52"/>
-    <mergeCell ref="Q50:Q52"/>
-    <mergeCell ref="R50:R52"/>
-    <mergeCell ref="S45:S47"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="N21:N23"/>
-    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="V45:V47"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="L53:L58"/>
+    <mergeCell ref="M53:M58"/>
+    <mergeCell ref="N53:N58"/>
     <mergeCell ref="O30:O35"/>
     <mergeCell ref="P30:P35"/>
     <mergeCell ref="O48:O49"/>
     <mergeCell ref="P48:P49"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="S48:S49"/>
-    <mergeCell ref="T48:T49"/>
-    <mergeCell ref="U48:U49"/>
-    <mergeCell ref="V48:V49"/>
-    <mergeCell ref="W45:W46"/>
     <mergeCell ref="X56:X58"/>
     <mergeCell ref="Y56:Y58"/>
     <mergeCell ref="Z56:Z58"/>
     <mergeCell ref="W53:W55"/>
     <mergeCell ref="X53:X55"/>
     <mergeCell ref="W56:W58"/>
+    <mergeCell ref="Y53:Y55"/>
+    <mergeCell ref="Z53:Z55"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="W45:W46"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="N21:N23"/>
     <mergeCell ref="Z45:Z46"/>
+    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="Q50:Q52"/>
+    <mergeCell ref="R50:R52"/>
     <mergeCell ref="T45:T47"/>
     <mergeCell ref="U45:U47"/>
-    <mergeCell ref="V45:V47"/>
-    <mergeCell ref="Y53:Y55"/>
-    <mergeCell ref="Z53:Z55"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -25411,8 +25418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25507,19 +25514,19 @@
       <c r="J3" s="24"/>
       <c r="K3" s="68"/>
       <c r="L3" s="74" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M3" s="26"/>
       <c r="N3" s="34"/>
       <c r="O3" s="22"/>
       <c r="P3" s="74" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q3" s="26"/>
       <c r="R3" s="52"/>
       <c r="S3" s="35"/>
       <c r="T3" s="25" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U3" s="40"/>
       <c r="V3" s="34"/>
@@ -25571,7 +25578,7 @@
         <v>99</v>
       </c>
       <c r="T4" s="243" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="U4" s="246"/>
       <c r="V4" s="228"/>
@@ -25660,16 +25667,16 @@
       <c r="M6" s="101"/>
       <c r="N6" s="118"/>
       <c r="O6" s="232" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P6" s="240" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q6" s="242" t="s">
         <v>14</v>
       </c>
       <c r="R6" s="229" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S6" s="232"/>
       <c r="T6" s="180"/>
@@ -25744,16 +25751,16 @@
       <c r="M8" s="101"/>
       <c r="N8" s="118"/>
       <c r="O8" s="232" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P8" s="240" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="242" t="s">
         <v>22</v>
       </c>
       <c r="R8" s="229" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S8" s="109"/>
       <c r="T8" s="94"/>
@@ -25812,16 +25819,16 @@
       <c r="M10" s="101"/>
       <c r="N10" s="118"/>
       <c r="O10" s="232" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P10" s="240" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="242" t="s">
         <v>14</v>
       </c>
       <c r="R10" s="143" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="S10" s="109"/>
       <c r="T10" s="94"/>
@@ -25905,7 +25912,7 @@
         <v>20</v>
       </c>
       <c r="T12" s="180" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="U12" s="242"/>
       <c r="V12" s="296"/>
@@ -26069,24 +26076,26 @@
         <v>262</v>
       </c>
       <c r="L16" s="180" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M16" s="242" t="s">
         <v>14</v>
       </c>
       <c r="N16" s="229" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O16" s="232" t="s">
-        <v>20</v>
+        <v>361</v>
       </c>
       <c r="P16" s="180" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q16" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="229"/>
+      <c r="R16" s="229" t="s">
+        <v>252</v>
+      </c>
       <c r="S16" s="252"/>
       <c r="T16" s="181"/>
       <c r="U16" s="183"/>
@@ -26143,25 +26152,25 @@
         <v>262</v>
       </c>
       <c r="L18" s="180" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M18" s="242" t="s">
         <v>14</v>
       </c>
       <c r="N18" s="229" t="s">
-        <v>362</v>
-      </c>
-      <c r="O18" s="232" t="s">
-        <v>363</v>
-      </c>
-      <c r="P18" s="180" t="s">
         <v>364</v>
       </c>
-      <c r="Q18" s="242" t="s">
+      <c r="O18" s="193" t="s">
+        <v>361</v>
+      </c>
+      <c r="P18" s="288" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q18" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="R18" s="229" t="s">
-        <v>252</v>
+      <c r="R18" s="259" t="s">
+        <v>366</v>
       </c>
       <c r="S18" s="109"/>
       <c r="T18" s="94"/>
@@ -26190,7 +26199,7 @@
       <c r="M19" s="183"/>
       <c r="N19" s="230"/>
       <c r="O19" s="194"/>
-      <c r="P19" s="181"/>
+      <c r="P19" s="241"/>
       <c r="Q19" s="183"/>
       <c r="R19" s="230"/>
       <c r="S19" s="109"/>
@@ -26202,7 +26211,7 @@
       <c r="Y19" s="101"/>
       <c r="Z19" s="118"/>
     </row>
-    <row r="20" spans="1:26" ht="9.75" customHeight="1">
+    <row r="20" spans="1:26" ht="13.5" customHeight="1">
       <c r="A20" s="122"/>
       <c r="B20" s="30" t="s">
         <v>40</v>
@@ -26219,18 +26228,10 @@
       <c r="L20" s="94"/>
       <c r="M20" s="101"/>
       <c r="N20" s="118"/>
-      <c r="O20" s="232" t="s">
-        <v>363</v>
-      </c>
-      <c r="P20" s="240" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q20" s="242" t="s">
-        <v>14</v>
-      </c>
-      <c r="R20" s="229" t="s">
-        <v>366</v>
-      </c>
+      <c r="O20" s="99"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="118"/>
       <c r="S20" s="109"/>
       <c r="T20" s="94"/>
       <c r="U20" s="101"/>
@@ -26257,10 +26258,10 @@
       <c r="L21" s="92"/>
       <c r="M21" s="113"/>
       <c r="N21" s="73"/>
-      <c r="O21" s="232"/>
-      <c r="P21" s="240"/>
-      <c r="Q21" s="242"/>
-      <c r="R21" s="229"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="73"/>
       <c r="S21" s="109"/>
       <c r="T21" s="94"/>
       <c r="U21" s="101"/>
@@ -26464,10 +26465,10 @@
       <c r="M26" s="101"/>
       <c r="N26" s="118"/>
       <c r="O26" s="232" t="s">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="P26" s="180" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q26" s="242" t="s">
         <v>14</v>
@@ -26532,10 +26533,10 @@
       <c r="M28" s="101"/>
       <c r="N28" s="118"/>
       <c r="O28" s="232" t="s">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="P28" s="240" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q28" s="242" t="s">
         <v>14</v>
@@ -26795,24 +26796,24 @@
         <v>20</v>
       </c>
       <c r="L36" s="180" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M36" s="242" t="s">
         <v>14</v>
       </c>
       <c r="N36" s="229" t="s">
-        <v>371</v>
-      </c>
-      <c r="O36" s="232" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" s="180" t="s">
         <v>372</v>
       </c>
-      <c r="Q36" s="191" t="s">
-        <v>38</v>
-      </c>
-      <c r="R36" s="229"/>
+      <c r="O36" s="193" t="s">
+        <v>368</v>
+      </c>
+      <c r="P36" s="179" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q36" s="190" t="s">
+        <v>374</v>
+      </c>
+      <c r="R36" s="318"/>
       <c r="S36" s="109"/>
       <c r="T36" s="94"/>
       <c r="U36" s="101"/>
@@ -26855,10 +26856,10 @@
       <c r="L37" s="181"/>
       <c r="M37" s="183"/>
       <c r="N37" s="230"/>
-      <c r="O37" s="194"/>
-      <c r="P37" s="181"/>
-      <c r="Q37" s="192"/>
-      <c r="R37" s="230"/>
+      <c r="O37" s="232"/>
+      <c r="P37" s="180"/>
+      <c r="Q37" s="191"/>
+      <c r="R37" s="264"/>
       <c r="S37" s="109"/>
       <c r="T37" s="94"/>
       <c r="U37" s="101"/>
@@ -26901,29 +26902,23 @@
         <v>20</v>
       </c>
       <c r="L38" s="180" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M38" s="242" t="s">
         <v>14</v>
       </c>
       <c r="N38" s="229" t="s">
-        <v>374</v>
-      </c>
-      <c r="O38" s="232" t="s">
-        <v>20</v>
-      </c>
-      <c r="P38" s="180" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q38" s="191" t="s">
-        <v>38</v>
-      </c>
-      <c r="R38" s="229"/>
+        <v>376</v>
+      </c>
+      <c r="O38" s="232"/>
+      <c r="P38" s="180"/>
+      <c r="Q38" s="191"/>
+      <c r="R38" s="264"/>
       <c r="S38" s="232">
         <v>524</v>
       </c>
       <c r="T38" s="180" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="U38" s="242" t="s">
         <v>14</v>
@@ -26970,7 +26965,7 @@
       <c r="O39" s="194"/>
       <c r="P39" s="181"/>
       <c r="Q39" s="192"/>
-      <c r="R39" s="230"/>
+      <c r="R39" s="265"/>
       <c r="S39" s="194"/>
       <c r="T39" s="181"/>
       <c r="U39" s="183"/>
@@ -27013,13 +27008,13 @@
         <v>20</v>
       </c>
       <c r="L40" s="180" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M40" s="242" t="s">
         <v>14</v>
       </c>
       <c r="N40" s="229" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O40" s="109"/>
       <c r="P40" s="94"/>
@@ -27029,7 +27024,7 @@
         <v>524</v>
       </c>
       <c r="T40" s="180" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="U40" s="242" t="s">
         <v>14</v>
@@ -27263,13 +27258,13 @@
         <v>393</v>
       </c>
       <c r="L46" s="180" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M46" s="242" t="s">
         <v>14</v>
       </c>
       <c r="N46" s="229" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O46" s="109"/>
       <c r="P46" s="94"/>
@@ -27363,7 +27358,7 @@
         <v>99</v>
       </c>
       <c r="T48" s="179" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="U48" s="182" t="s">
         <v>22</v>
@@ -27497,7 +27492,7 @@
         <v>99</v>
       </c>
       <c r="T52" s="179" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="U52" s="182" t="s">
         <v>22</v>
@@ -27863,53 +27858,54 @@
       <c r="Z64" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="125">
+  <mergeCells count="117">
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="N16:N17"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="R36:R39"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O36:O39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N22:N25"/>
     <mergeCell ref="K22:K25"/>
     <mergeCell ref="L22:L25"/>
     <mergeCell ref="M22:M25"/>
-    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="T23:T27"/>
     <mergeCell ref="M40:M41"/>
     <mergeCell ref="K38:K39"/>
-    <mergeCell ref="N22:N25"/>
     <mergeCell ref="N40:N41"/>
     <mergeCell ref="N38:N39"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="V38:V39"/>
+    <mergeCell ref="Q24:Q25"/>
     <mergeCell ref="O18:O19"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R24:R25"/>
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="Q18:Q19"/>
     <mergeCell ref="R18:R19"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="U23:U27"/>
+    <mergeCell ref="S23:S27"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="V23:V27"/>
+    <mergeCell ref="U12:U16"/>
     <mergeCell ref="R62:Y62"/>
     <mergeCell ref="U4:U7"/>
     <mergeCell ref="V4:V7"/>
@@ -27920,16 +27916,6 @@
     <mergeCell ref="U48:U51"/>
     <mergeCell ref="V48:V51"/>
     <mergeCell ref="V52:V55"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="V23:V27"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="V38:V39"/>
-    <mergeCell ref="T23:T27"/>
-    <mergeCell ref="U23:U27"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="U40:U41"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="P2:U2"/>
@@ -27949,19 +27935,11 @@
     <mergeCell ref="S4:S7"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="S23:S27"/>
-    <mergeCell ref="U12:U16"/>
     <mergeCell ref="K36:K37"/>
-    <mergeCell ref="S48:S51"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="S52:S55"/>
-    <mergeCell ref="T52:T55"/>
-    <mergeCell ref="U52:U55"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="P26:P27"/>
@@ -27972,23 +27950,32 @@
     <mergeCell ref="R26:R27"/>
     <mergeCell ref="O28:O29"/>
     <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="R16:R17"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="O22:O23"/>
     <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="U52:U55"/>
     <mergeCell ref="V40:V41"/>
     <mergeCell ref="S42:S43"/>
     <mergeCell ref="T42:T43"/>
     <mergeCell ref="U42:U43"/>
     <mergeCell ref="V42:V43"/>
+    <mergeCell ref="S48:S51"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="U40:U41"/>
+    <mergeCell ref="S52:S55"/>
+    <mergeCell ref="T52:T55"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
